--- a/similarities/split_global/harmonic_similarity_timestamps_180.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_180.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:14.360000', '0:00:19.220000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:37.120000', '0:00:40.300000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_159</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E', 'E:aug', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:maj/F#', 'D:aug/F#', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:46.416525', '0:00:51.776584')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:01:19.900000', '0:01:28.500000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=46.416525</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-159#t=79.9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:10.540000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['Bb:7', 'Eb', 'Bb', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:18.253000', '0:00:23.992000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.660000', '0:00:24.820000')]</t>
+          <t>('0:00:09.940000', '0:00:13.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.253</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'E:7/G#']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:01:41.849092', '0:01:46.934263')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=5.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:49.466575')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:14.180000', '0:01:33.600000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=74.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:13.780000', '0:02:14.740000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:16.440000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G', 'D/3', 'E:min']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E', 'B', 'C#:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.605000', '0:00:14.901000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:23.528185', '0:00:29.008095')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=8.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=23.528185']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:02.900000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:59.292687')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.776621', '0:00:32.769727')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=20.776621']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:01:45', '0:01:48.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:00.465952', '0:00:08.500330')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:16.192174', '0:00:27.488682')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>['D:7', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:50.046698', '0:00:55.352457')]</t>
+          <t>('0:00:23.629455', '0:00:29.120975')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:44.836000', '0:00:49.319000')]</t>
+          <t>('0:00:58.040000', '0:01:04.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=50.046698']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=58.04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
